--- a/data/trans_camb/P13A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-49,63</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-77,18</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-82,49</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,71</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,18</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 81,44</t>
+          <t>-0,8; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 32,97</t>
+          <t>-0,79; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 30,16</t>
+          <t>-0,2; 4,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 61,19</t>
+          <t>-0,97; 0,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 24,28</t>
+          <t>-0,72; 1,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-63,87; 21,68</t>
+          <t>-0,17; 2,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,63%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-77,18%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-82,49%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>125,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>385,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,7%</t>
+          <t>223,75%</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,97; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,51; —</t>
+          <t>-76,17; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-75,54</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-94,7</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-73,63</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-86,45</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-92,32</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 1,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 0,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 1,65</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,27 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-75,54%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-94,7%</t>
+          <t>-13,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-73,63%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-86,45%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-92,32%</t>
+          <t>115,28%</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-57,73</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-90,94</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-89,6</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,54</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-27,24</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-31,69</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 0,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 50,02</t>
+          <t>-1,25; 0,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 19,91</t>
+          <t>-0,62; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 11,81</t>
+          <t>-0,36; 1,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 39,21</t>
+          <t>-0,53; 0,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 12,95</t>
+          <t>-0,43; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 1,74</t>
+          <t>-0,06; 1,54</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>100,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-90,94%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-89,6%</t>
+          <t>215,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-42,81%</t>
+          <t>-53,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>58,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-63,09%</t>
+          <t>171,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-63,48%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-73,83%</t>
+          <t>185,53%</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-91,12; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,29; —</t>
+          <t>-75,8; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1474,12 +1474,19 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,39; 132,24</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,81; 13,17</t>
+          <t>-39,21; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
